--- a/biology/Zoologie/Arbanitis_montanus/Arbanitis_montanus.xlsx
+++ b/biology/Zoologie/Arbanitis_montanus/Arbanitis_montanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis montanus est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis montanus est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle a été découverte dans les Jenolan Caves[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle a été découverte dans les Jenolan Caves.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle mesure 6,8 mm de long sur 5,5 mm et l'abdomen 6,7 mm de long sur 3,8 mm et la carapace de la femelle mesure 10,2 mm de long sur 7,2 mm et l'abdomen 13,4 mm de long sur 8,2 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle mesure 6,8 mm de long sur 5,5 mm et l'abdomen 6,7 mm de long sur 3,8 mm et la carapace de la femelle mesure 10,2 mm de long sur 7,2 mm et l'abdomen 13,4 mm de long sur 8,2 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow &amp; Pulleine, 1918 : Australian trap-door spiders. Records of the Australian Museum, vol. 12, p. 81-169 (texte intégral).</t>
         </is>
